--- a/data/georgia_census/imereti/xaragauli/healthcare_staff.xlsx
+++ b/data/georgia_census/imereti/xaragauli/healthcare_staff.xlsx
@@ -1376,13 +1376,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CCC4AB8-8573-45E4-A815-5CD194F26025}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A0AFDF-BFA8-4E49-A331-D8EC44DD730F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E59D28-6575-4CA9-9346-3BF0A27CF711}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6479E567-EC06-4DB3-99F2-A1198AC16089}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8AB8A50-813F-46F8-A65A-7A3D5E97A132}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1514DDE6-E3DD-4C3A-9FB4-528D2924A5BD}"/>
 </file>